--- a/source_data/02_data.xlsx
+++ b/source_data/02_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7478DF9-0452-483F-B75A-55D8A21ECD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAE63D-4F96-4B82-AE9B-BA4D1AFFCBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/source_data/02_data.xlsx
+++ b/source_data/02_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF2002-477C-4EDE-B0A0-249919EEF177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAF5B7-0416-4CCD-A6CA-BAB7E74F3A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
